--- a/target/classes/com/framework/testdata/TestDataWithValidation.xlsx
+++ b/target/classes/com/framework/testdata/TestDataWithValidation.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="42">
   <si>
     <t>HTTPMETHODS</t>
   </si>
@@ -826,11 +826,11 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId127"/>
-    <hyperlink ref="D3" r:id="rId128"/>
-    <hyperlink ref="D4" r:id="rId129"/>
-    <hyperlink ref="D5" r:id="rId130"/>
-    <hyperlink ref="D6" r:id="rId131"/>
+    <hyperlink ref="D2" r:id="rId152"/>
+    <hyperlink ref="D3" r:id="rId153"/>
+    <hyperlink ref="D4" r:id="rId154"/>
+    <hyperlink ref="D5" r:id="rId155"/>
+    <hyperlink ref="D6" r:id="rId156"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId6"/>
